--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>729231.515075908</v>
+        <v>725064.9820742799</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33932413.92211566</v>
+        <v>33932413.92211567</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747057</v>
+        <v>6528279.443747054</v>
       </c>
     </row>
     <row r="9">
@@ -1220,58 +1220,58 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
-        <v>40.6378963153706</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>37.06736141641883</v>
-      </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,11 +1308,11 @@
         <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.2848184896819</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>18.98847872300956</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>15.43178216282989</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.2317846102413</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>288.1827448601059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>346.2198564981178</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370093</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>8.894178641793539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>122.4113170686615</v>
+        <v>400.411078004469</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>42.38852593713396</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>131.0896549746874</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>275.1106372348591</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735097</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>89.66059396863916</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.64499605674014</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>91.29868241717212</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>73.5084639478048</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3474170061614</v>
+        <v>83.14840330806435</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>134.855081265911</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U25" t="n">
-        <v>163.106902906176</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
-        <v>50.96342052416357</v>
+        <v>73.07782428669599</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U28" t="n">
         <v>275.6010546203353</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>185.8286061976751</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>224.1818318104731</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>223.8644008205169</v>
       </c>
       <c r="Y29" t="n">
-        <v>400.5473193198401</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0624000411058</v>
+        <v>134.8550812659114</v>
       </c>
       <c r="H31" t="n">
-        <v>117.2842401487711</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.6907226285777</v>
@@ -3009,7 +3009,7 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3034,16 +3034,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>259.5800341643037</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>256.2148093776999</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>172.357483468851</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H34" t="n">
-        <v>98.9589039375566</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>34.27543414295886</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>371.4116960684214</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>41.61575831406447</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18.06386979467078</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H37" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U37" t="n">
         <v>275.6010546203353</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>426.8265054811814</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>144.4501573011435</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H38" t="n">
         <v>266.3081572941393</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>130.7417251547865</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
-        <v>80.14694373259793</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>180.8447371904139</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>271.2872438294587</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415827</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>409.9165876485779</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0624000411058</v>
@@ -3918,7 +3918,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>231.1047565282361</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>102.5420194226048</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>419.0709932761596</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>6.661766211910585</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>111.0807406099663</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>47.26419098289031</v>
       </c>
       <c r="T46" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6010546203353</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>46.60838092749324</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>57.87076063483687</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>73.0144200153417</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>90.6863562321231</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>108.8260160160753</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>125.4202608481983</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>138.7386053004439</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.6415658622096</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>127.8182329816055</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>86.08590667097184</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>86.08590667097184</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
         <v>86.76985286506957</v>
@@ -4956,46 +4956,46 @@
         <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>13.9067269085125</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>20.70014982475453</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>29.39339226389555</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>70.29524528094761</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>111.1970982979997</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
-        <v>119.4618979460225</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
         <v>128.5021791757032</v>
@@ -5004,10 +5004,10 @@
         <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>485.3490243655314</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C11" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2108.089956131647</v>
+        <v>2300.68092612414</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.019264653161</v>
+        <v>2041.610234645654</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.402314586987</v>
+        <v>1678.99328457948</v>
       </c>
       <c r="W11" t="n">
-        <v>1081.546859998021</v>
+        <v>1274.137829990514</v>
       </c>
       <c r="X11" t="n">
-        <v>662.4043965773313</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y11" t="n">
-        <v>662.4043965773313</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="12">
@@ -5099,43 +5099,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,58 +5175,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1113136517137</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5496021349386</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364613</v>
+        <v>592.7327416204683</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871986</v>
+        <v>422.9747378712056</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895475</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545215</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.331138940781</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
@@ -5235,16 +5235,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X13" t="n">
-        <v>1136.285270360843</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.9299323707007</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1173.712709371908</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="C14" t="n">
-        <v>1173.712709371908</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="D14" t="n">
-        <v>737.8029245463522</v>
+        <v>1100.419874612525</v>
       </c>
       <c r="E14" t="n">
-        <v>737.8029245463522</v>
+        <v>666.6451297708199</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>666.6451297708199</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
         <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
@@ -5314,16 +5314,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381564</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371908</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="Y14" t="n">
-        <v>1173.712709371908</v>
+        <v>1536.32965943808</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5375,7 +5375,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
         <v>1614.947661807679</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="16">
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>861.47351945173</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C16" t="n">
-        <v>688.9118079349549</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>523.0338151364776</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>353.2758113872149</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>353.2758113872149</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>188.5346309997333</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>56.19057037904923</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.331138940781</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
@@ -5466,22 +5466,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351144</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399887</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.711808856609</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>1053.292138170717</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>598.721776158597</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="C17" t="n">
-        <v>598.721776158597</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="D17" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895475</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435814</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286703</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131647</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.019264653161</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>1849.019264653161</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>1444.163810064194</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X17" t="n">
-        <v>1025.021346643505</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="Y17" t="n">
-        <v>1025.021346643505</v>
+        <v>1547.185999158423</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,25 +5585,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>617.6280653369093</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>617.6280653369093</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D19" t="n">
-        <v>451.7500725384321</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7500725384321</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>1019.751453776091</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1150.35584611462</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.854757918509</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1841.240021951654</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.284513822084</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1282.258109408376</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1036.866354741788</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.4466840558964</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.938005412413</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>744.7955325958366</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>744.7955325958366</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2108.089956131647</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>2108.089956131647</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>2108.089956131647</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X20" t="n">
-        <v>2017.523699597668</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y20" t="n">
-        <v>1609.237575897321</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810426</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>625.4485964662028</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C22" t="n">
-        <v>452.8868849494278</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D22" t="n">
-        <v>287.0088921509505</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E22" t="n">
-        <v>287.0088921509505</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>110.3018381127067</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376306</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855379</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904122</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360844</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942564</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083646</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>958.5591948056039</v>
+        <v>918.6509117982573</v>
       </c>
       <c r="C23" t="n">
-        <v>958.5591948056039</v>
+        <v>918.6509117982573</v>
       </c>
       <c r="D23" t="n">
-        <v>522.6494099800484</v>
+        <v>482.7411269727017</v>
       </c>
       <c r="E23" t="n">
-        <v>522.6494099800484</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="F23" t="n">
-        <v>522.6494099800484</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G23" t="n">
-        <v>123.2173558156482</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H23" t="n">
         <v>48.9663821309969</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786133</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K23" t="n">
-        <v>531.4362430141189</v>
+        <v>531.4362430141191</v>
       </c>
       <c r="L23" t="n">
-        <v>835.4773641398447</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M23" t="n">
         <v>1173.781693844501</v>
@@ -6016,25 +6016,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S23" t="n">
-        <v>2409.462380959786</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T23" t="n">
-        <v>2198.000343579825</v>
+        <v>2364.330820380083</v>
       </c>
       <c r="U23" t="n">
-        <v>2198.000343579825</v>
+        <v>2105.265779874087</v>
       </c>
       <c r="V23" t="n">
-        <v>2198.000343579825</v>
+        <v>1742.648829807913</v>
       </c>
       <c r="W23" t="n">
-        <v>1793.144888990858</v>
+        <v>1337.793375218946</v>
       </c>
       <c r="X23" t="n">
-        <v>1793.144888990858</v>
+        <v>918.6509117982573</v>
       </c>
       <c r="Y23" t="n">
-        <v>1384.858765290512</v>
+        <v>918.6509117982573</v>
       </c>
     </row>
     <row r="24">
@@ -6068,7 +6068,7 @@
         <v>84.4584715023734</v>
       </c>
       <c r="J24" t="n">
-        <v>181.8514775085927</v>
+        <v>181.8514775085926</v>
       </c>
       <c r="K24" t="n">
         <v>348.3116373029835</v>
@@ -6077,16 +6077,16 @@
         <v>572.1378646061675</v>
       </c>
       <c r="M24" t="n">
-        <v>833.332514667877</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N24" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P24" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q24" t="n">
         <v>1613.147991278647</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.0783541050384</v>
+        <v>704.210405239229</v>
       </c>
       <c r="C25" t="n">
-        <v>743.5166425882634</v>
+        <v>531.6486937224539</v>
       </c>
       <c r="D25" t="n">
-        <v>577.6386497897861</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E25" t="n">
-        <v>407.8806460405233</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F25" t="n">
-        <v>407.8806460405233</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G25" t="n">
-        <v>243.1711510495074</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H25" t="n">
-        <v>111.1088024083089</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I25" t="n">
         <v>48.9663821309969</v>
@@ -6150,19 +6150,19 @@
         <v>110.0676242284526</v>
       </c>
       <c r="K25" t="n">
-        <v>210.475734554476</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L25" t="n">
-        <v>338.9635464693263</v>
+        <v>613.7220010404619</v>
       </c>
       <c r="M25" t="n">
-        <v>933.9197959938717</v>
+        <v>1208.678250565007</v>
       </c>
       <c r="N25" t="n">
-        <v>1508.42975103868</v>
+        <v>1783.188205609815</v>
       </c>
       <c r="O25" t="n">
-        <v>2050.254344501474</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P25" t="n">
         <v>2358.083982536742</v>
@@ -6174,25 +6174,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T25" t="n">
-        <v>2304.444758099758</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U25" t="n">
-        <v>2139.690310719783</v>
+        <v>1927.822361853973</v>
       </c>
       <c r="V25" t="n">
-        <v>1852.734802590213</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W25" t="n">
-        <v>1580.708398176505</v>
+        <v>1368.840449310695</v>
       </c>
       <c r="X25" t="n">
-        <v>1335.316643509917</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y25" t="n">
-        <v>1107.896972824026</v>
+        <v>896.0290239582162</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1587.081104643606</v>
+        <v>912.7435965473446</v>
       </c>
       <c r="C26" t="n">
-        <v>1587.081104643606</v>
+        <v>912.7435965473446</v>
       </c>
       <c r="D26" t="n">
-        <v>1151.171319818051</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E26" t="n">
-        <v>717.396574976346</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F26" t="n">
-        <v>717.396574976346</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H26" t="n">
         <v>48.96638213099691</v>
@@ -6226,16 +6226,16 @@
         <v>122.8353788882626</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141192</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L26" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M26" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N26" t="n">
         <v>1517.560141290067</v>
@@ -6253,25 +6253,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S26" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T26" t="n">
-        <v>2409.462380959787</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="U26" t="n">
-        <v>2357.984178410126</v>
+        <v>2163.041085041908</v>
       </c>
       <c r="V26" t="n">
-        <v>1995.367228343953</v>
+        <v>2163.041085041908</v>
       </c>
       <c r="W26" t="n">
-        <v>1995.367228343953</v>
+        <v>1758.185630452941</v>
       </c>
       <c r="X26" t="n">
-        <v>1995.367228343953</v>
+        <v>1339.043167032252</v>
       </c>
       <c r="Y26" t="n">
-        <v>1587.081104643606</v>
+        <v>1339.043167032252</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D27" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F27" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G27" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H27" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I27" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J27" t="n">
-        <v>953.0192784942872</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K27" t="n">
-        <v>1057.48585300418</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L27" t="n">
-        <v>1281.312080307365</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M27" t="n">
-        <v>1542.506730369074</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N27" t="n">
-        <v>1810.614425608979</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O27" t="n">
-        <v>2055.880587663637</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
-        <v>2252.728305759304</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R27" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S27" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T27" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U27" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V27" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W27" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X27" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y27" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1030.64298786597</v>
+        <v>561.3094327169807</v>
       </c>
       <c r="C28" t="n">
-        <v>858.0812763491953</v>
+        <v>561.3094327169807</v>
       </c>
       <c r="D28" t="n">
-        <v>692.203283550718</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E28" t="n">
-        <v>522.4452798014552</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F28" t="n">
-        <v>345.7382257632114</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G28" t="n">
-        <v>181.0287307721954</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H28" t="n">
         <v>48.96638213099691</v>
@@ -6384,22 +6384,22 @@
         <v>48.96638213099691</v>
       </c>
       <c r="J28" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K28" t="n">
-        <v>317.7499529982695</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L28" t="n">
-        <v>446.2377649131199</v>
+        <v>338.9635464693263</v>
       </c>
       <c r="M28" t="n">
-        <v>1041.194014437665</v>
+        <v>933.9197959938717</v>
       </c>
       <c r="N28" t="n">
-        <v>1615.703969482473</v>
+        <v>1508.42975103868</v>
       </c>
       <c r="O28" t="n">
-        <v>1737.859313719485</v>
+        <v>2050.254344501474</v>
       </c>
       <c r="P28" t="n">
         <v>2189.89120767241</v>
@@ -6411,25 +6411,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S28" t="n">
-        <v>2448.319106549845</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T28" t="n">
-        <v>2448.319106549845</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U28" t="n">
-        <v>2169.934202892941</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V28" t="n">
-        <v>1882.978694763371</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W28" t="n">
-        <v>1695.273031937437</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X28" t="n">
-        <v>1449.881277270849</v>
+        <v>979.5743461940215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1222.461606584958</v>
+        <v>753.1280514359678</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1784.660814205626</v>
+        <v>1348.751029380071</v>
       </c>
       <c r="C29" t="n">
-        <v>1346.51834138905</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="D29" t="n">
         <v>910.6085565634939</v>
@@ -6451,31 +6451,31 @@
         <v>476.8338117217892</v>
       </c>
       <c r="F29" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G29" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8353788882621</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786136</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141188</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398446</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M29" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O29" t="n">
         <v>1842.180380803855</v>
@@ -6490,25 +6490,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S29" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T29" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U29" t="n">
-        <v>2189.254066043849</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V29" t="n">
-        <v>2189.254066043849</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W29" t="n">
-        <v>2189.254066043849</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X29" t="n">
-        <v>2189.254066043849</v>
+        <v>2183.336723565325</v>
       </c>
       <c r="Y29" t="n">
-        <v>1784.660814205626</v>
+        <v>1775.050599864978</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G30" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H30" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I30" t="n">
-        <v>84.4584715023734</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J30" t="n">
-        <v>181.8514775085926</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K30" t="n">
-        <v>286.3180520184858</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L30" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M30" t="n">
-        <v>771.3389293833792</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N30" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O30" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P30" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q30" t="n">
         <v>1613.147991278647</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.2915649187121</v>
+        <v>704.2104052392294</v>
       </c>
       <c r="C31" t="n">
-        <v>674.729853401937</v>
+        <v>531.6486937224544</v>
       </c>
       <c r="D31" t="n">
-        <v>508.8518606034597</v>
+        <v>531.6486937224544</v>
       </c>
       <c r="E31" t="n">
-        <v>508.8518606034597</v>
+        <v>361.8906899731916</v>
       </c>
       <c r="F31" t="n">
-        <v>332.144806565216</v>
+        <v>185.1836359349478</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4353115742</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J31" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K31" t="n">
-        <v>571.8138742903013</v>
+        <v>413.780372607162</v>
       </c>
       <c r="L31" t="n">
-        <v>700.3016862051517</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M31" t="n">
-        <v>1295.257935729697</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N31" t="n">
-        <v>1869.767890774505</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O31" t="n">
-        <v>1991.923235011517</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q31" t="n">
         <v>2430.451674572188</v>
@@ -6648,25 +6648,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S31" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T31" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.948013403887</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W31" t="n">
-        <v>1511.921608990179</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X31" t="n">
-        <v>1266.529854323591</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y31" t="n">
-        <v>1039.110183637699</v>
+        <v>896.0290239582166</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2043.463651960879</v>
+        <v>1177.178339249784</v>
       </c>
       <c r="C32" t="n">
-        <v>1605.321179144302</v>
+        <v>739.035866433207</v>
       </c>
       <c r="D32" t="n">
-        <v>1169.411394318746</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E32" t="n">
-        <v>735.6366494770416</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F32" t="n">
-        <v>307.7692198862493</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G32" t="n">
         <v>48.96638213099691</v>
@@ -6697,19 +6697,19 @@
         <v>48.96638213099691</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882624</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786134</v>
+        <v>286.3580891786136</v>
       </c>
       <c r="K32" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L32" t="n">
-        <v>835.4773641398448</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M32" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N32" t="n">
         <v>1517.560141290067</v>
@@ -6727,25 +6727,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W32" t="n">
-        <v>2043.463651960879</v>
+        <v>2004.60692637082</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.463651960879</v>
+        <v>1585.46446295013</v>
       </c>
       <c r="Y32" t="n">
-        <v>2043.463651960879</v>
+        <v>1177.178339249784</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>84.45847150237341</v>
       </c>
       <c r="J33" t="n">
-        <v>119.8578922240949</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K33" t="n">
-        <v>286.3180520184858</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L33" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M33" t="n">
-        <v>771.3389293833792</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N33" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P33" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
         <v>1613.147991278647</v>
@@ -6846,37 +6846,37 @@
         <v>387.7743452723674</v>
       </c>
       <c r="F34" t="n">
-        <v>211.0672912341236</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G34" t="n">
-        <v>211.0672912341236</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I34" t="n">
         <v>48.96638213099691</v>
       </c>
       <c r="J34" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K34" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L34" t="n">
-        <v>700.3016862051518</v>
+        <v>654.2451577325836</v>
       </c>
       <c r="M34" t="n">
-        <v>1295.257935729697</v>
+        <v>789.7175400762159</v>
       </c>
       <c r="N34" t="n">
-        <v>1427.509087616861</v>
+        <v>1364.227495121024</v>
       </c>
       <c r="O34" t="n">
-        <v>1737.859313719485</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q34" t="n">
         <v>2430.451674572188</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1391.415035264287</v>
+        <v>886.5409091119739</v>
       </c>
       <c r="C35" t="n">
-        <v>953.2725624477107</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="D35" t="n">
-        <v>517.3627776221551</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="E35" t="n">
-        <v>83.58803278045031</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="F35" t="n">
-        <v>48.96638213099691</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G35" t="n">
         <v>48.96638213099691</v>
@@ -6934,13 +6934,13 @@
         <v>48.96638213099691</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J35" t="n">
         <v>286.3580891786135</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141191</v>
       </c>
       <c r="L35" t="n">
         <v>835.477364139845</v>
@@ -6967,22 +6967,22 @@
         <v>2448.319106549845</v>
       </c>
       <c r="T35" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U35" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="V35" t="n">
-        <v>2236.857069169884</v>
+        <v>2085.702156483672</v>
       </c>
       <c r="W35" t="n">
-        <v>2236.857069169884</v>
+        <v>1680.846701894705</v>
       </c>
       <c r="X35" t="n">
-        <v>1817.714605749195</v>
+        <v>1261.704238474016</v>
       </c>
       <c r="Y35" t="n">
-        <v>1817.714605749195</v>
+        <v>886.5409091119739</v>
       </c>
     </row>
     <row r="36">
@@ -7019,16 +7019,16 @@
         <v>181.8514775085927</v>
       </c>
       <c r="K36" t="n">
-        <v>348.3116373029836</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L36" t="n">
-        <v>572.1378646061676</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M36" t="n">
-        <v>833.332514667877</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N36" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O36" t="n">
         <v>1284.712786677942</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>946.3222462781964</v>
+        <v>560.3360567891425</v>
       </c>
       <c r="C37" t="n">
-        <v>773.7605347614214</v>
+        <v>387.7743452723674</v>
       </c>
       <c r="D37" t="n">
-        <v>607.8825419629441</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="E37" t="n">
-        <v>438.1245382136813</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="F37" t="n">
-        <v>261.4174841754375</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G37" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H37" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I37" t="n">
         <v>48.96638213099691</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K37" t="n">
-        <v>571.8138742903014</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L37" t="n">
-        <v>700.3016862051518</v>
+        <v>613.7220010404619</v>
       </c>
       <c r="M37" t="n">
-        <v>1295.257935729697</v>
+        <v>789.7175400762159</v>
       </c>
       <c r="N37" t="n">
-        <v>1615.703969482473</v>
+        <v>1364.227495121024</v>
       </c>
       <c r="O37" t="n">
-        <v>1737.859313719485</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q37" t="n">
         <v>2430.451674572188</v>
@@ -7122,25 +7122,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S37" t="n">
-        <v>2448.319106549845</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T37" t="n">
-        <v>2448.319106549845</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U37" t="n">
-        <v>2169.934202892941</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V37" t="n">
-        <v>1882.978694763371</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W37" t="n">
-        <v>1610.952290349663</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X37" t="n">
-        <v>1365.560535683075</v>
+        <v>979.5743461940215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.140864997184</v>
+        <v>752.1546755081297</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1771.700773094918</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="C38" t="n">
-        <v>1333.558300278341</v>
+        <v>2010.176633733269</v>
       </c>
       <c r="D38" t="n">
-        <v>897.6485154527854</v>
+        <v>1579.038749408843</v>
       </c>
       <c r="E38" t="n">
-        <v>463.8737706110806</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="F38" t="n">
-        <v>317.9645208119458</v>
+        <v>717.396574976346</v>
       </c>
       <c r="G38" t="n">
         <v>317.9645208119458</v>
@@ -7171,7 +7171,7 @@
         <v>48.96638213099691</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882625</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J38" t="n">
         <v>286.3580891786135</v>
@@ -7201,25 +7201,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S38" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T38" t="n">
-        <v>2198.000343579825</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U38" t="n">
-        <v>2198.000343579825</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="V38" t="n">
-        <v>2198.000343579825</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="W38" t="n">
-        <v>2198.000343579825</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="X38" t="n">
-        <v>2198.000343579825</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="Y38" t="n">
-        <v>2198.000343579825</v>
+        <v>2448.319106549845</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>84.45847150237341</v>
       </c>
       <c r="J39" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K39" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L39" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M39" t="n">
         <v>771.3389293833792</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.785408143282</v>
+        <v>928.0759131522664</v>
       </c>
       <c r="C40" t="n">
-        <v>920.2236966265071</v>
+        <v>755.5142016354913</v>
       </c>
       <c r="D40" t="n">
-        <v>754.3457038280299</v>
+        <v>589.636208837014</v>
       </c>
       <c r="E40" t="n">
-        <v>584.5877000787672</v>
+        <v>419.8782050877512</v>
       </c>
       <c r="F40" t="n">
-        <v>407.8806460405234</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="G40" t="n">
         <v>243.1711510495074</v>
@@ -7335,19 +7335,19 @@
         <v>110.0676242284526</v>
       </c>
       <c r="K40" t="n">
-        <v>415.2397400649823</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L40" t="n">
-        <v>961.9374337477936</v>
+        <v>613.7220010404619</v>
       </c>
       <c r="M40" t="n">
-        <v>1556.893683272339</v>
+        <v>1208.678250565007</v>
       </c>
       <c r="N40" t="n">
-        <v>2131.403638317147</v>
+        <v>1783.188205609815</v>
       </c>
       <c r="O40" t="n">
-        <v>2253.558982554159</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P40" t="n">
         <v>2358.083982536742</v>
@@ -7359,25 +7359,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S40" t="n">
-        <v>2448.319106549845</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T40" t="n">
-        <v>2367.362597729039</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U40" t="n">
-        <v>2088.977694072135</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="V40" t="n">
-        <v>1802.022185942565</v>
+        <v>1775.377408931222</v>
       </c>
       <c r="W40" t="n">
-        <v>1529.995781528857</v>
+        <v>1592.705957223733</v>
       </c>
       <c r="X40" t="n">
-        <v>1284.604026862269</v>
+        <v>1347.314202557145</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.604026862269</v>
+        <v>1119.894531871254</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1310.040610727894</v>
+        <v>1620.545860408705</v>
       </c>
       <c r="C41" t="n">
-        <v>1310.040610727894</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D41" t="n">
-        <v>1310.040610727894</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E41" t="n">
-        <v>876.2658658861894</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F41" t="n">
-        <v>448.3984362953971</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141191</v>
       </c>
       <c r="L41" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M41" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O41" t="n">
         <v>1842.180380803855</v>
@@ -7438,25 +7438,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S41" t="n">
-        <v>2409.462380959787</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="T41" t="n">
-        <v>2409.462380959787</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="U41" t="n">
-        <v>2150.39734045379</v>
+        <v>2409.462380959786</v>
       </c>
       <c r="V41" t="n">
-        <v>2150.39734045379</v>
+        <v>2046.845430893613</v>
       </c>
       <c r="W41" t="n">
-        <v>2150.39734045379</v>
+        <v>2046.845430893613</v>
       </c>
       <c r="X41" t="n">
-        <v>1736.340181212802</v>
+        <v>2046.845430893613</v>
       </c>
       <c r="Y41" t="n">
-        <v>1736.340181212802</v>
+        <v>2046.845430893613</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G42" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I42" t="n">
-        <v>84.45847150237341</v>
+        <v>84.4584715023734</v>
       </c>
       <c r="J42" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K42" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L42" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M42" t="n">
-        <v>833.332514667877</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O42" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P42" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q42" t="n">
         <v>1613.147991278647</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.785408143282</v>
+        <v>684.1779300784638</v>
       </c>
       <c r="C43" t="n">
-        <v>920.2236966265071</v>
+        <v>511.6162185616887</v>
       </c>
       <c r="D43" t="n">
-        <v>754.3457038280299</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="E43" t="n">
-        <v>584.5877000787672</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="F43" t="n">
-        <v>407.8806460405234</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G43" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H43" t="n">
-        <v>111.1088024083089</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K43" t="n">
-        <v>297.0554197191659</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L43" t="n">
-        <v>843.7531134019773</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M43" t="n">
-        <v>1231.97634323386</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.227495121024</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O43" t="n">
-        <v>1906.052088583818</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P43" t="n">
-        <v>2358.083982536742</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q43" t="n">
         <v>2430.451674572188</v>
@@ -7599,22 +7599,22 @@
         <v>2304.444758099758</v>
       </c>
       <c r="T43" t="n">
-        <v>2304.444758099758</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U43" t="n">
-        <v>2304.444758099758</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V43" t="n">
-        <v>2017.489249970189</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W43" t="n">
-        <v>1745.46284555648</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X43" t="n">
-        <v>1512.023697548161</v>
+        <v>979.5743461940215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.604026862269</v>
+        <v>875.9965487974509</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1756.225438779234</v>
+        <v>753.8743056375013</v>
       </c>
       <c r="C44" t="n">
-        <v>1318.082965962657</v>
+        <v>753.8743056375013</v>
       </c>
       <c r="D44" t="n">
-        <v>882.1731811371019</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="E44" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="F44" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="G44" t="n">
-        <v>48.96638213099692</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H44" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I44" t="n">
         <v>122.8353788882626</v>
@@ -7669,31 +7669,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q44" t="n">
-        <v>2327.293660516458</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R44" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S44" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T44" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U44" t="n">
-        <v>2189.254066043849</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V44" t="n">
-        <v>2189.254066043849</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W44" t="n">
-        <v>2189.254066043849</v>
+        <v>2004.60692637082</v>
       </c>
       <c r="X44" t="n">
-        <v>2182.525009264142</v>
+        <v>1585.46446295013</v>
       </c>
       <c r="Y44" t="n">
-        <v>2182.525009264142</v>
+        <v>1177.178339249784</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H45" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I45" t="n">
-        <v>84.45847150237343</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J45" t="n">
         <v>181.8514775085927</v>
       </c>
       <c r="K45" t="n">
-        <v>348.3116373029836</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L45" t="n">
-        <v>572.1378646061676</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M45" t="n">
-        <v>833.332514667877</v>
+        <v>833.3325146678769</v>
       </c>
       <c r="N45" t="n">
         <v>1101.440209907782</v>
       </c>
       <c r="O45" t="n">
-        <v>1346.70637196244</v>
+        <v>1346.706371962439</v>
       </c>
       <c r="P45" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q45" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R45" t="n">
         <v>1677.151305564151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1039.1101836377</v>
+        <v>898.5806392247719</v>
       </c>
       <c r="C46" t="n">
-        <v>866.5484721209251</v>
+        <v>726.0189277079968</v>
       </c>
       <c r="D46" t="n">
-        <v>754.3457038280299</v>
+        <v>560.1409349095195</v>
       </c>
       <c r="E46" t="n">
-        <v>584.5877000787672</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8806460405234</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G46" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I46" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J46" t="n">
         <v>110.0676242284526</v>
       </c>
       <c r="K46" t="n">
-        <v>485.2341891256116</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L46" t="n">
-        <v>613.7220010404619</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M46" t="n">
-        <v>1063.783568369529</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N46" t="n">
-        <v>1196.034720256692</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O46" t="n">
-        <v>1737.859313719486</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.891207672411</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q46" t="n">
-        <v>2430.451674572189</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R46" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S46" t="n">
-        <v>2304.444758099759</v>
+        <v>2400.577499496421</v>
       </c>
       <c r="T46" t="n">
-        <v>2062.332917060792</v>
+        <v>2400.577499496421</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.948013403888</v>
+        <v>2122.192595839516</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.948013403888</v>
+        <v>1835.237087709947</v>
       </c>
       <c r="W46" t="n">
-        <v>1511.921608990179</v>
+        <v>1563.210683296238</v>
       </c>
       <c r="X46" t="n">
-        <v>1266.529854323592</v>
+        <v>1317.818928629651</v>
       </c>
       <c r="Y46" t="n">
-        <v>1039.1101836377</v>
+        <v>1090.399257943759</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>34.65901652406723</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.42232634949133</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.532860747963475</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637266</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710765</v>
+        <v>1.530227110285693</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477706</v>
       </c>
       <c r="P10" t="n">
         <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>433.0638956244409</v>
       </c>
       <c r="N13" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>177.1920849464602</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>264.6463123855413</v>
+        <v>45.75904403825029</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>177.19208494646</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>45.75904403825029</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>351.7327603104359</v>
       </c>
       <c r="P25" t="n">
-        <v>205.3582202552375</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>20.90356896879155</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>35.46652847308405</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10272,7 +10272,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>117.9039928161578</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>94.38684108920143</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>318.4662740032903</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>190.0958402682954</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10752,19 +10752,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>40.93248150719353</v>
       </c>
       <c r="N37" t="n">
-        <v>190.0958402682954</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>206.8323287984912</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10995,10 +10995,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.7156956939295469</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>255.3038863517686</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.22432129475237</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>317.7668535206408</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>65.22432129475283</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>246.7517562903768</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23272,7 +23272,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>190.6650602925693</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>159.5082013350315</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.91368936879149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>135.4060104347785</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>49.28780790919973</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23554,7 +23554,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>53.57015505632089</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>309.1393699086384</v>
+        <v>31.1396089728309</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,13 +23901,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>132.5514575607274</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>144.513110657057</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>146.9259375451996</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>325.2904448178433</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2554364750571</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>178.0074579523992</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>192.7996933463345</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>126.1990136980971</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>29.36413160458156</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T25" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>112.4941517141593</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>205.5109695767727</v>
+        <v>183.3965658142403</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
         <v>61.52099607453886</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.47753417189625</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.9636421685596588</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415828</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>191.0866379659655</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.655943143502952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>28.20731877519438</v>
       </c>
       <c r="H31" t="n">
-        <v>13.45748500601546</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
         <v>61.52099607453886</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>171.9706528129962</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>139.2229242450563</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H32" t="n">
         <v>266.3081572941393</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.582500029010333</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>31.78282121722994</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>389.3133211519255</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>266.3081572941393</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415827</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U35" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>32.79156639492169</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>122.6034545564281</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>144.998530246435</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4.724181496118547</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>279.1385979937409</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.46815833415828</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U38" t="n">
         <v>256.4743901009363</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>159.5437788959798</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>88.46140317915746</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>162.4738042589522</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
         <v>266.3081572941393</v>
@@ -25684,16 +25684,16 @@
         <v>209.3474170061614</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>5.034451137904455</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>11.83308059168556</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>122.603454556428</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.965581503899102</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>408.2892725745718</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>53.13847226052623</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>95.1714139826955</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332421.4196250947</v>
+        <v>332421.4196250946</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332421.4196250947</v>
+        <v>332421.4196250946</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>332421.4196250947</v>
+        <v>332421.4196250946</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332421.4196250947</v>
+        <v>332421.4196250946</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>342181.5209171968</v>
+        <v>342181.5209171969</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342181.5209171968</v>
+        <v>342181.5209171969</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>392538.4746673437</v>
       </c>
       <c r="C2" t="n">
-        <v>392538.4746673437</v>
+        <v>392538.4746673438</v>
       </c>
       <c r="D2" t="n">
         <v>402110.4899178062</v>
@@ -26325,25 +26325,25 @@
         <v>235946.3569512259</v>
       </c>
       <c r="F2" t="n">
-        <v>235946.3569512259</v>
+        <v>235946.356951226</v>
       </c>
       <c r="G2" t="n">
         <v>235946.356951226</v>
       </c>
       <c r="H2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731975</v>
       </c>
       <c r="J2" t="n">
         <v>242775.0810731975</v>
       </c>
       <c r="K2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731975</v>
       </c>
       <c r="L2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731975</v>
       </c>
       <c r="M2" t="n">
         <v>242775.0810731975</v>
@@ -26352,10 +26352,10 @@
         <v>242775.0810731975</v>
       </c>
       <c r="O2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731974</v>
       </c>
       <c r="P2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731974</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>40883.89454475579</v>
       </c>
       <c r="E3" t="n">
-        <v>512485.5095559818</v>
+        <v>512485.5095559817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935625</v>
+        <v>18943.98047935644</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>10456.45543630175</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831155</v>
+        <v>136754.9043831154</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294577.6699288963</v>
       </c>
       <c r="E4" t="n">
-        <v>18294.04639895363</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="F4" t="n">
-        <v>18294.04639895363</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="G4" t="n">
-        <v>18294.04639895363</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="H4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="I4" t="n">
-        <v>18962.63703627205</v>
+        <v>18962.63703627206</v>
       </c>
       <c r="J4" t="n">
         <v>18962.63703627206</v>
@@ -26459,7 +26459,7 @@
         <v>18962.63703627206</v>
       </c>
       <c r="P4" t="n">
-        <v>18962.63703627207</v>
+        <v>18962.63703627206</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="J5" t="n">
         <v>47767.76961397016</v>
       </c>
       <c r="K5" t="n">
-        <v>47767.76961397015</v>
+        <v>47767.76961397016</v>
       </c>
       <c r="L5" t="n">
         <v>47767.76961397016</v>
@@ -26508,7 +26508,7 @@
         <v>47767.76961397016</v>
       </c>
       <c r="O5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397015</v>
       </c>
       <c r="P5" t="n">
         <v>47767.76961397016</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60180.15835551085</v>
+        <v>60148.25163800923</v>
       </c>
       <c r="C6" t="n">
-        <v>60180.15835551085</v>
+        <v>60148.25163800934</v>
       </c>
       <c r="D6" t="n">
-        <v>29795.355633944</v>
+        <v>29795.35563394395</v>
       </c>
       <c r="E6" t="n">
-        <v>-340884.2802133474</v>
+        <v>-341438.1606565692</v>
       </c>
       <c r="F6" t="n">
-        <v>171601.2293426345</v>
+        <v>171047.3488994126</v>
       </c>
       <c r="G6" t="n">
-        <v>171601.2293426346</v>
+        <v>171047.3488994126</v>
       </c>
       <c r="H6" t="n">
-        <v>171601.2293426346</v>
+        <v>171047.3488994126</v>
       </c>
       <c r="I6" t="n">
-        <v>157100.6939435989</v>
+        <v>156569.5759141168</v>
       </c>
       <c r="J6" t="n">
-        <v>176044.6744229553</v>
+        <v>175513.5563934732</v>
       </c>
       <c r="K6" t="n">
-        <v>176044.6744229552</v>
+        <v>175513.5563934733</v>
       </c>
       <c r="L6" t="n">
-        <v>165588.2189866535</v>
+        <v>165057.1009571715</v>
       </c>
       <c r="M6" t="n">
-        <v>39289.77003983979</v>
+        <v>38758.65201035787</v>
       </c>
       <c r="N6" t="n">
-        <v>176044.6744229553</v>
+        <v>175513.5563934733</v>
       </c>
       <c r="O6" t="n">
-        <v>176044.6744229553</v>
+        <v>175513.5563934732</v>
       </c>
       <c r="P6" t="n">
-        <v>176044.6744229553</v>
+        <v>175513.5563934732</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="H3" t="n">
-        <v>466.7019280932214</v>
-      </c>
       <c r="I3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="J3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="K3" t="n">
         <v>484.0972107528673</v>
       </c>
       <c r="L3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="M3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="N3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528673</v>
       </c>
       <c r="P3" t="n">
-        <v>484.0972107528675</v>
+        <v>484.0972107528673</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>612.0797766374612</v>
@@ -26816,7 +26816,7 @@
         <v>612.0797766374614</v>
       </c>
       <c r="K4" t="n">
-        <v>612.0797766374612</v>
+        <v>612.0797766374614</v>
       </c>
       <c r="L4" t="n">
         <v>612.0797766374614</v>
@@ -26828,10 +26828,10 @@
         <v>612.0797766374614</v>
       </c>
       <c r="O4" t="n">
+        <v>612.0797766374612</v>
+      </c>
+      <c r="P4" t="n">
         <v>612.0797766374614</v>
-      </c>
-      <c r="P4" t="n">
-        <v>612.0797766374615</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326497</v>
+        <v>433.9488260326495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.395282659646</v>
+        <v>17.39528265964617</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552688</v>
+        <v>21.9978822755271</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205372</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>24.44494263490342</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
-        <v>87.27789097014248</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
         <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28013,7 +28013,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28028,10 +28028,10 @@
         <v>122.5612962059744</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383404</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888224</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.6196485125224</v>
+        <v>138.7773509625391</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
@@ -28070,13 +28070,13 @@
         <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>247.6956983640117</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31755,31 +31755,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,31 +31992,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699064</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548413</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562268</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600663</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238418</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.48253255205198</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207643</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>19.93069571707658</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J23" t="n">
         <v>165.1744548387384</v>
@@ -32718,16 +32718,16 @@
         <v>307.1122435613392</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O23" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q23" t="n">
         <v>210.1590056992511</v>
@@ -32739,7 +32739,7 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U23" t="n">
         <v>0.1556895552170024</v>
@@ -32788,7 +32788,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K24" t="n">
         <v>168.1415755498898</v>
@@ -32800,7 +32800,7 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
-        <v>208.1960706620275</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O24" t="n">
         <v>247.7435980350075</v>
@@ -32809,16 +32809,16 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S24" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T24" t="n">
-        <v>4.197031478130991</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U24" t="n">
         <v>0.06850432227634919</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I25" t="n">
         <v>26.25235365853255</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K25" t="n">
         <v>101.4223336626499</v>
@@ -32879,16 +32879,16 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P25" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R25" t="n">
         <v>39.25155417022428</v>
@@ -32943,7 +32943,7 @@
         <v>19.93069571707658</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J26" t="n">
         <v>165.1744548387384</v>
@@ -32955,16 +32955,16 @@
         <v>307.1122435613392</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q26" t="n">
         <v>210.1590056992511</v>
@@ -32976,7 +32976,7 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U26" t="n">
         <v>0.1556895552170024</v>
@@ -33025,10 +33025,10 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K27" t="n">
-        <v>105.5217924342356</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
         <v>226.0870982860444</v>
@@ -33040,7 +33040,7 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350075</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P27" t="n">
         <v>198.8360788845127</v>
@@ -33049,13 +33049,13 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R27" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S27" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T27" t="n">
-        <v>4.197031478130991</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U27" t="n">
         <v>0.06850432227634919</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I28" t="n">
         <v>26.25235365853255</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
@@ -33116,16 +33116,16 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N28" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P28" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R28" t="n">
         <v>39.25155417022428</v>
@@ -33265,7 +33265,7 @@
         <v>98.37677374365582</v>
       </c>
       <c r="K30" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
         <v>226.0870982860444</v>
@@ -33283,7 +33283,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R30" t="n">
         <v>64.64981240959993</v>
@@ -33417,7 +33417,7 @@
         <v>19.93069571707658</v>
       </c>
       <c r="I32" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J32" t="n">
         <v>165.1744548387384</v>
@@ -33429,16 +33429,16 @@
         <v>307.1122435613392</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O32" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q32" t="n">
         <v>210.1590056992511</v>
@@ -33450,7 +33450,7 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T32" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U32" t="n">
         <v>0.1556895552170024</v>
@@ -33499,7 +33499,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J33" t="n">
-        <v>35.7569906280015</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K33" t="n">
         <v>168.1415755498898</v>
@@ -33520,16 +33520,16 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S33" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T33" t="n">
-        <v>4.197031478130991</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U33" t="n">
         <v>0.06850432227634919</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H34" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I34" t="n">
         <v>26.25235365853255</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K34" t="n">
         <v>101.4223336626499</v>
@@ -33590,16 +33590,16 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O34" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P34" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R34" t="n">
         <v>39.25155417022428</v>
@@ -33654,7 +33654,7 @@
         <v>19.93069571707658</v>
       </c>
       <c r="I35" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J35" t="n">
         <v>165.1744548387384</v>
@@ -33666,16 +33666,16 @@
         <v>307.1122435613392</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O35" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q35" t="n">
         <v>210.1590056992511</v>
@@ -33687,7 +33687,7 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T35" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U35" t="n">
         <v>0.1556895552170024</v>
@@ -33736,7 +33736,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498898</v>
@@ -33748,10 +33748,10 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N36" t="n">
-        <v>208.1960706620275</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350075</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
@@ -33760,13 +33760,13 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R36" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S36" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T36" t="n">
-        <v>4.197031478130991</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U36" t="n">
         <v>0.06850432227634919</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H37" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I37" t="n">
         <v>26.25235365853255</v>
       </c>
       <c r="J37" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K37" t="n">
         <v>101.4223336626499</v>
@@ -33827,16 +33827,16 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P37" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R37" t="n">
         <v>39.25155417022428</v>
@@ -33891,7 +33891,7 @@
         <v>19.93069571707658</v>
       </c>
       <c r="I38" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J38" t="n">
         <v>165.1744548387384</v>
@@ -33903,16 +33903,16 @@
         <v>307.1122435613392</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q38" t="n">
         <v>210.1590056992511</v>
@@ -33924,7 +33924,7 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T38" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U38" t="n">
         <v>0.1556895552170024</v>
@@ -33973,7 +33973,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365583</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498898</v>
@@ -33982,7 +33982,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>201.2131967446583</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N39" t="n">
         <v>270.8158537776819</v>
@@ -33997,13 +33997,13 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R39" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S39" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T39" t="n">
-        <v>4.197031478130991</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U39" t="n">
         <v>0.06850432227634919</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H40" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I40" t="n">
         <v>26.25235365853255</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K40" t="n">
         <v>101.4223336626499</v>
@@ -34064,16 +34064,16 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P40" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R40" t="n">
         <v>39.25155417022428</v>
@@ -34128,7 +34128,7 @@
         <v>19.93069571707658</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J41" t="n">
         <v>165.1744548387384</v>
@@ -34140,16 +34140,16 @@
         <v>307.1122435613392</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O41" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q41" t="n">
         <v>210.1590056992511</v>
@@ -34161,7 +34161,7 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T41" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U41" t="n">
         <v>0.1556895552170024</v>
@@ -34210,7 +34210,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800152</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
@@ -34231,16 +34231,16 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R42" t="n">
-        <v>64.64981240959995</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S42" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T42" t="n">
-        <v>4.197031478130991</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U42" t="n">
         <v>0.06850432227634919</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H43" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I43" t="n">
         <v>26.25235365853255</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K43" t="n">
         <v>101.4223336626499</v>
@@ -34301,16 +34301,16 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P43" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R43" t="n">
         <v>39.25155417022428</v>
@@ -34362,31 +34362,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H44" t="n">
-        <v>19.93069571707659</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I44" t="n">
-        <v>75.02776971879368</v>
+        <v>75.02776971879365</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K44" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157226</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321094</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q44" t="n">
         <v>210.1590056992511</v>
@@ -34398,10 +34398,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T44" t="n">
-        <v>8.51913784953036</v>
+        <v>8.519137849530356</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,10 +34444,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K45" t="n">
         <v>168.1415755498898</v>
@@ -34459,28 +34459,28 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688588</v>
       </c>
       <c r="Q45" t="n">
         <v>132.9166530353911</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959993</v>
       </c>
       <c r="S45" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T45" t="n">
-        <v>4.197031478130991</v>
+        <v>4.19703147813099</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0685043222763492</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8729621833248429</v>
+        <v>0.8729621833248427</v>
       </c>
       <c r="H46" t="n">
-        <v>7.7614274117427</v>
+        <v>7.761427411742698</v>
       </c>
       <c r="I46" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106637</v>
       </c>
       <c r="K46" t="n">
         <v>101.4223336626499</v>
@@ -34538,19 +34538,19 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082463</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030424</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P46" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.09867882368299</v>
+        <v>73.09867882368296</v>
       </c>
       <c r="R46" t="n">
-        <v>39.25155417022429</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S46" t="n">
         <v>15.21335004939748</v>
@@ -34559,7 +34559,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04761611909044603</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35275,7 +35275,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>17.79641043222202</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.70861279263668</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739425</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829311</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
+        <v>9.258389161154689</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.5684724707054</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.945718411146316</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>564.987524249218</v>
       </c>
       <c r="N13" t="n">
-        <v>305.9788645463486</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>305.9788645463486</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184533</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35974,10 +35974,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>383.6017480903511</v>
+        <v>164.7144797430601</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785924</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562268</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>164.7144797430601</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J23" t="n">
         <v>165.1744548387385</v>
@@ -36363,10 +36363,10 @@
         <v>247.5536907429349</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562186</v>
       </c>
       <c r="N23" t="n">
         <v>347.2509570157226</v>
@@ -36436,7 +36436,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365583</v>
+        <v>98.3767737436558</v>
       </c>
       <c r="K24" t="n">
         <v>168.1415755498898</v>
@@ -36445,19 +36445,19 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
-        <v>208.1960706620275</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P24" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R24" t="n">
         <v>64.64981240959992</v>
@@ -36518,22 +36518,22 @@
         <v>61.71842636106638</v>
       </c>
       <c r="K25" t="n">
-        <v>101.4223336626499</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L25" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M25" t="n">
         <v>600.9659086106519</v>
       </c>
       <c r="N25" t="n">
-        <v>580.313085903847</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O25" t="n">
-        <v>547.297569154337</v>
+        <v>475.1219969134781</v>
       </c>
       <c r="P25" t="n">
-        <v>310.939028318453</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
         <v>73.0986788236828</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L26" t="n">
         <v>307.1122435613393</v>
@@ -36612,13 +36612,13 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q26" t="n">
         <v>210.1590056992509</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K27" t="n">
-        <v>105.5217924342356</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R27" t="n">
-        <v>64.64981240960014</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K28" t="n">
-        <v>122.3259026314415</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
         <v>129.7856686008589</v>
@@ -36764,13 +36764,13 @@
         <v>600.9659086106519</v>
       </c>
       <c r="N28" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030423</v>
+        <v>547.297569154337</v>
       </c>
       <c r="P28" t="n">
-        <v>456.5978726797223</v>
+        <v>141.0473365362996</v>
       </c>
       <c r="Q28" t="n">
         <v>242.9903706058367</v>
@@ -36849,13 +36849,13 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q29" t="n">
         <v>210.1590056992509</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J30" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K30" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
         <v>226.0870982860444</v>
@@ -36922,16 +36922,16 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P30" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R30" t="n">
         <v>64.64981240959992</v>
@@ -36992,7 +36992,7 @@
         <v>149.172653800147</v>
       </c>
       <c r="K31" t="n">
-        <v>378.9561261587464</v>
+        <v>219.3263264788076</v>
       </c>
       <c r="L31" t="n">
         <v>129.7856686008589</v>
@@ -37004,13 +37004,13 @@
         <v>580.3130859038467</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P31" t="n">
-        <v>199.9676491524169</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R31" t="n">
         <v>18.04791108854245</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J32" t="n">
         <v>165.1744548387384</v>
@@ -37086,7 +37086,7 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q32" t="n">
         <v>210.1590056992509</v>
@@ -37147,7 +37147,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J33" t="n">
-        <v>35.7569906280015</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K33" t="n">
         <v>168.1415755498898</v>
@@ -37159,16 +37159,16 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P33" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973722</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959992</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K34" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
-        <v>129.7856686008589</v>
+        <v>448.2519426041492</v>
       </c>
       <c r="M34" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460932</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082462</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O34" t="n">
-        <v>313.4850768713377</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P34" t="n">
         <v>456.5978726797223</v>
       </c>
       <c r="Q34" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R34" t="n">
         <v>18.04791108854245</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K35" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M35" t="n">
         <v>341.7215451562188</v>
@@ -37323,13 +37323,13 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q35" t="n">
         <v>210.1590056992509</v>
       </c>
       <c r="R35" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498898</v>
@@ -37396,10 +37396,10 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N36" t="n">
-        <v>208.1960706620275</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193534</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K37" t="n">
-        <v>378.9561261587465</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L37" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M37" t="n">
-        <v>600.965908610652</v>
+        <v>177.7732717532868</v>
       </c>
       <c r="N37" t="n">
-        <v>323.6828623765416</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P37" t="n">
         <v>456.5978726797223</v>
       </c>
       <c r="Q37" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R37" t="n">
         <v>18.04791108854245</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K38" t="n">
         <v>247.5536907429348</v>
@@ -37557,16 +37557,16 @@
         <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q38" t="n">
         <v>210.1590056992509</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365585</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498898</v>
@@ -37630,7 +37630,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>201.2131967446583</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N39" t="n">
         <v>270.8158537776819</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K40" t="n">
-        <v>308.2546624611411</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L40" t="n">
-        <v>552.2198926089004</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M40" t="n">
         <v>600.9659086106519</v>
       </c>
       <c r="N40" t="n">
-        <v>580.313085903847</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030423</v>
+        <v>124.1049322969718</v>
       </c>
       <c r="P40" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q40" t="n">
         <v>73.0986788236828</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613391</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562186</v>
       </c>
       <c r="N41" t="n">
         <v>347.2509570157226</v>
@@ -37858,7 +37858,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365585</v>
+        <v>35.75699062800152</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
@@ -37879,7 +37879,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R42" t="n">
         <v>64.64981240959992</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K43" t="n">
-        <v>101.4223336626499</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L43" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M43" t="n">
-        <v>392.1446765978619</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
         <v>133.5870221082462</v>
@@ -37958,7 +37958,7 @@
         <v>456.5978726797223</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.0986788236828</v>
+        <v>138.3230001184352</v>
       </c>
       <c r="R43" t="n">
         <v>18.04791108854245</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.61514823966228</v>
+        <v>74.61514823966225</v>
       </c>
       <c r="J44" t="n">
         <v>165.1744548387383</v>
@@ -38034,13 +38034,13 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518621</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365582</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
@@ -38107,19 +38107,19 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776819</v>
+        <v>270.8158537776818</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350074</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688588</v>
       </c>
       <c r="Q45" t="n">
         <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106636</v>
       </c>
       <c r="K46" t="n">
         <v>378.9561261587464</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7856686008589</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M46" t="n">
-        <v>454.6076437667341</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
         <v>133.5870221082462</v>
@@ -38195,7 +38195,7 @@
         <v>456.5978726797223</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.9903706058367</v>
+        <v>138.3230001184356</v>
       </c>
       <c r="R46" t="n">
         <v>18.04791108854245</v>
